--- a/analysis/pre_gemini_data/participant180/easy.xlsx
+++ b/analysis/pre_gemini_data/participant180/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,107 +422,103 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>conditional body</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>conditional satement</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>loop statement</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>method declaration</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>method2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>return2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
@@ -574,65 +558,59 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="R3" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
-      </c>
-      <c r="U3" t="n">
         <v>2</v>
       </c>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -641,65 +619,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>232</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="K4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="S4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
-      </c>
-      <c r="U4" t="n">
         <v>3</v>
       </c>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -708,65 +680,59 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7524.4</v>
+        <v>1835.19</v>
       </c>
       <c r="C5" t="n">
-        <v>52433.78</v>
+        <v>30660.28</v>
       </c>
       <c r="D5" t="n">
-        <v>5005.59</v>
+        <v>2769.98</v>
       </c>
       <c r="E5" t="n">
-        <v>21122.53</v>
+        <v>9226.82</v>
       </c>
       <c r="F5" t="n">
-        <v>2352.45</v>
+        <v>300.39</v>
       </c>
       <c r="G5" t="n">
         <v>75096.17999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>3987.44</v>
+        <v>1584.96</v>
       </c>
       <c r="I5" t="n">
-        <v>1117.65</v>
+        <v>450.35</v>
       </c>
       <c r="J5" t="n">
-        <v>40471.34</v>
+        <v>23252.82</v>
       </c>
       <c r="K5" t="n">
-        <v>8308.690000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3236.75</v>
-      </c>
+        <v>583.9400000000001</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>2018.88</v>
+        <v>1201.42</v>
       </c>
       <c r="N5" t="n">
-        <v>5422.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>166.78</v>
-      </c>
+        <v>717.4400000000001</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>7040.97</v>
+        <v>3470.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>9903.76</v>
+        <v>7234.47</v>
       </c>
       <c r="R5" t="n">
-        <v>96239.41</v>
+        <v>87179.28999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>4688.24</v>
+        <v>884.1900000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>4504.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1902.03</v>
-      </c>
+        <v>583.9400000000001</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -775,65 +741,59 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.96</v>
+        <v>0.92</v>
       </c>
       <c r="C6" t="n">
-        <v>13.66</v>
+        <v>15.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E6" t="n">
-        <v>5.5</v>
+        <v>4.63</v>
       </c>
       <c r="F6" t="n">
-        <v>0.61</v>
+        <v>0.15</v>
       </c>
       <c r="G6" t="n">
         <v>40.63</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="I6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.29</v>
       </c>
-      <c r="J6" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.84</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="N6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.04</v>
-      </c>
+        <v>0.36</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.58</v>
+        <v>3.63</v>
       </c>
       <c r="R6" t="n">
-        <v>25.07</v>
+        <v>43.79</v>
       </c>
       <c r="S6" t="n">
-        <v>1.22</v>
+        <v>0.44</v>
       </c>
       <c r="T6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.29</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -842,65 +802,59 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.22</v>
+        <v>203.91</v>
       </c>
       <c r="C7" t="n">
-        <v>250.88</v>
+        <v>241.42</v>
       </c>
       <c r="D7" t="n">
-        <v>263.45</v>
+        <v>251.82</v>
       </c>
       <c r="E7" t="n">
-        <v>310.63</v>
+        <v>256.3</v>
       </c>
       <c r="F7" t="n">
-        <v>336.06</v>
+        <v>150.19</v>
       </c>
       <c r="G7" t="n">
         <v>323.69</v>
       </c>
       <c r="H7" t="n">
-        <v>306.73</v>
+        <v>264.16</v>
       </c>
       <c r="I7" t="n">
-        <v>159.66</v>
+        <v>225.18</v>
       </c>
       <c r="J7" t="n">
-        <v>268.02</v>
+        <v>244.77</v>
       </c>
       <c r="K7" t="n">
-        <v>332.35</v>
-      </c>
-      <c r="L7" t="n">
-        <v>539.46</v>
-      </c>
+        <v>194.65</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>224.32</v>
+        <v>240.28</v>
       </c>
       <c r="N7" t="n">
-        <v>318.96</v>
-      </c>
-      <c r="O7" t="n">
-        <v>166.78</v>
-      </c>
+        <v>239.15</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>260.78</v>
+        <v>231.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>330.13</v>
+        <v>361.72</v>
       </c>
       <c r="R7" t="n">
-        <v>280.58</v>
+        <v>302.71</v>
       </c>
       <c r="S7" t="n">
-        <v>426.2</v>
+        <v>221.05</v>
       </c>
       <c r="T7" t="n">
-        <v>300.32</v>
-      </c>
-      <c r="U7" t="n">
-        <v>634.01</v>
-      </c>
+        <v>194.65</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -938,18 +892,14 @@
       <c r="K8" t="n">
         <v>317</v>
       </c>
-      <c r="L8" t="n">
-        <v>216.86</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>534.04</v>
       </c>
       <c r="N8" t="n">
         <v>316.99</v>
       </c>
-      <c r="O8" t="n">
-        <v>166.78</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>316.99</v>
       </c>
@@ -965,9 +915,7 @@
       <c r="T8" t="n">
         <v>317</v>
       </c>
-      <c r="U8" t="n">
-        <v>967.66</v>
-      </c>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -992,75 +940,6 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
